--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3765.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3765.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.291650903394548</v>
+        <v>1.25955867767334</v>
       </c>
       <c r="B1">
-        <v>2.568866003612376</v>
+        <v>1.684051871299744</v>
       </c>
       <c r="C1">
-        <v>3.618555387971747</v>
+        <v>5.542348384857178</v>
       </c>
       <c r="D1">
-        <v>4.237857731404827</v>
+        <v>1.556192874908447</v>
       </c>
       <c r="E1">
-        <v>1.215569664113495</v>
+        <v>0.7474992871284485</v>
       </c>
     </row>
   </sheetData>
